--- a/src/imports/tests/demo_import_file.xlsx
+++ b/src/imports/tests/demo_import_file.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
   <si>
     <t>document_key</t>
   </si>
@@ -29,7 +29,10 @@
     <t>status</t>
   </si>
   <si>
-    <t>klass</t>
+    <t>docclass</t>
+  </si>
+  <si>
+    <t>received_date</t>
   </si>
   <si>
     <t>created_on</t>
@@ -159,10 +162,10 @@
     <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -170,9 +173,9 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.3826530612245"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.8520408163265"/>
     <col collapsed="false" hidden="false" max="4" min="3" style="0" width="6.57142857142857"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="10.4591836734694"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.265306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="7" min="5" style="0" width="10.4591836734694"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="12.265306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -197,71 +200,83 @@
       <c r="G1" s="0" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
